--- a/data/s2/Player Stats.xlsx
+++ b/data/s2/Player Stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/289d63768f222688/Desktop/Plat Chat Tournament/Season 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/289d63768f222688/Desktop/Plat Chat Tournament/Website/pcmt/data/s2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F4E5998C26692ADA838654F022D7295DC5CFD470" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC83383-2065-4F73-90C0-E62EB18577F3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F4E5998C26692ADA838654F022D7295DC5CFD470" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F92377-0FC0-408A-AAA2-591746F28FCB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3627,7 +3627,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" ref="N34:N65" si="11">O34/C34</f>
+        <f t="shared" ref="N34:N62" si="11">O34/C34</f>
         <v>1.3966480446927373E-2</v>
       </c>
       <c r="O34" s="1">
@@ -8434,7 +8434,7 @@
         <v>0.22</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" ref="N34:N65" si="11">O34/C34</f>
+        <f t="shared" ref="N34:N62" si="11">O34/C34</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O34" s="1">
@@ -10737,7 +10737,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10843,7 +10843,7 @@
         <v>325.95</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F21" si="0">Q2/R2</f>
+        <f t="shared" ref="F2:F22" si="0">Q2/R2</f>
         <v>2.125</v>
       </c>
       <c r="G2" s="3">
@@ -10872,7 +10872,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="N2" s="11">
-        <f t="shared" ref="N2:N21" si="5">O2/C2</f>
+        <f t="shared" ref="N2:N22" si="5">O2/C2</f>
         <v>0</v>
       </c>
       <c r="O2" s="1">
@@ -12322,21 +12322,39 @@
       <c r="E22" s="6">
         <v>151.47999999999999</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69444444444444442</v>
+      </c>
       <c r="G22" s="3">
         <v>0.64</v>
       </c>
       <c r="H22" s="5">
         <v>96.26</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="I22" s="2">
+        <f t="shared" ref="I22" si="6">Q22/C22</f>
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ref="J22" si="7">S22/C22</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" ref="K22" si="8">T22/C22</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ref="L22" si="9">U22/C22</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
       <c r="M22" s="3">
         <v>0.25</v>
       </c>
-      <c r="N22" s="11"/>
+      <c r="N22" s="11">
+        <f t="shared" si="5"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
       <c r="O22" s="1">
         <v>2</v>
       </c>
